--- a/data/input/absenteeism_data_17.xlsx
+++ b/data/input/absenteeism_data_17.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43016</v>
+        <v>71472</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kaique Duarte</t>
+          <t>Sra. Julia da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>7107.93</v>
+        <v>7600.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74576</v>
+        <v>33012</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antônio Rocha</t>
+          <t>Beatriz Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>5769.33</v>
+        <v>3277.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72803</v>
+        <v>89088</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samuel Peixoto</t>
+          <t>Nathan Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>3502.69</v>
+        <v>9759.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11383</v>
+        <v>24770</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rafaela Ferreira</t>
+          <t>Ana Sophia Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,114 +581,114 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>7929.87</v>
+        <v>10091.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85194</v>
+        <v>63990</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Luiz Fernando Pereira</t>
+          <t>Dra. Kamilly Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>5805.26</v>
+        <v>10310.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22846</v>
+        <v>80974</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kamilly Cavalcanti</t>
+          <t>Joana Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>9240.41</v>
+        <v>10286.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27629</v>
+        <v>93757</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Noah Costela</t>
+          <t>Thales da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>9026.790000000001</v>
+        <v>5268.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11707</v>
+        <v>40491</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João da Cunha</t>
+          <t>Pedro Oliveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>2661.67</v>
+        <v>3070.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78574</v>
+        <v>46511</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mirella Farias</t>
+          <t>Ana Vitória Ribeiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>9604.6</v>
+        <v>10617.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91952</v>
+        <v>6895</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Felipe Farias</t>
+          <t>Renan Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>10775.78</v>
+        <v>11355.39</v>
       </c>
     </row>
   </sheetData>
